--- a/Discharge/Discharge_2019/Discharge_July22.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285299B-C0B2-0142-A1E5-C02AC025B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F569A-137E-2D4D-8A13-44920D666937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>Station 4</t>
   </si>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1284,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1850,10 +1850,295 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>A32-A20</f>
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.35</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>C20*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>A38</f>
+        <v>0.35</v>
+      </c>
+      <c r="F38">
+        <f>SUM(E38:E50)</f>
+        <v>3.0089144799999992E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.4</v>
+      </c>
+      <c r="B39">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C50" si="7">C21*2.54</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D39">
+        <f>(A39+(A40-A39)/2)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E39">
+        <f>(D39-D38)*(B39)*C39</f>
+        <v>3.5958780000000029E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.45</v>
+      </c>
+      <c r="B40">
+        <v>0.41755999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D41" si="8">(A40+(A41-A40)/2)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E40">
+        <f>(D40-D39)*(B40)*C40</f>
+        <v>3.7121083999999954E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.5</v>
+      </c>
+      <c r="B41">
+        <v>0.35464000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="9">(D41-D40)*(B41)*C41</f>
+        <v>4.0535352000000031E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B42">
+        <v>0.26884000000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>0.254</v>
+      </c>
+      <c r="D42">
+        <f>(A42+(A43-A42)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E42">
+        <f>(D42-D41)*(B42)*C42</f>
+        <v>3.4142679999999959E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.6</v>
+      </c>
+      <c r="B43">
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>0.254</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D49" si="10">(A43+(A44-A43)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E50" si="11">(D43-D42)*(B43)*C43</f>
+        <v>2.3246080000000023E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.65</v>
+      </c>
+      <c r="B44">
+        <v>0.10296000000000001</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="11"/>
+        <v>1.4383512000000014E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.7</v>
+      </c>
+      <c r="B45">
+        <v>0.10296000000000001</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>0.48260000000000003</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="11"/>
+        <v>2.4844247999999971E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.75</v>
+      </c>
+      <c r="B46">
+        <v>0.13155999999999998</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="7"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="11"/>
+        <v>3.3416240000000027E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.8</v>
+      </c>
+      <c r="B47">
+        <v>0.14872000000000002</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="7"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="11"/>
+        <v>3.7774879999999955E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.85</v>
+      </c>
+      <c r="B48">
+        <v>0.10868</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="7"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="11"/>
+        <v>1.6562832000000015E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.9</v>
+      </c>
+      <c r="B49">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="7"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="11"/>
+        <v>2.9057600000000029E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.95</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>(A50+(A51-A50)/2)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2422,21 +2707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -2620,31 +2890,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19175931-ED90-491D-9397-D5DA6293E3E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C63020-A5FF-44AB-B1E0-672EB84E9718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185AF3AD-2BD2-4C2F-BBB3-C5462A110482}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2660,4 +2921,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C63020-A5FF-44AB-B1E0-672EB84E9718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19175931-ED90-491D-9397-D5DA6293E3E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>